--- a/dados/eliteautomotiva.xlsx
+++ b/dados/eliteautomotiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=941845b4-39c5-45bc-bf23-25fdd74478b7</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=52067f2a-1255-4a9a-871e-3e1b559a779a</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:209318924#searchVariation=MLB24154371&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=7455c28b-fad4-4fd2-990f-134065d0b9bf</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:209318924#searchVariation=MLB24154371&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0981a011-8af3-4a8f-8778-23fee5fa183e</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:209318924#searchVariation=MLB22569833&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=a4af7d46-910e-45d3-9703-de902445dbc2</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:209318924#searchVariation=MLB22569833&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=0981a011-8af3-4a8f-8778-23fee5fa183e</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3254236266-fonte-automotiva-carregador-jfa-storm-40a-bivolt-12v-digital-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4b5bb6fa-3924-4ab7-9e72-ca4a0ba4f39f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3254236266-fonte-automotiva-carregador-jfa-storm-40a-bivolt-12v-digital-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01c70779-e52d-43ca-9940-e1f210892cff</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3709911152-fonte-automotiva-bivolt-jfa-storm-light-200-ampere-carregado-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8cad0535-ab7d-45bd-a9a3-4c1df40cddba</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3709911152-fonte-automotiva-bivolt-jfa-storm-light-200-ampere-carregado-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De397452d-cc1a-4882-83de-325c2b8a43a9</t>
         </is>
       </c>
     </row>
@@ -676,38 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244870575-fonte-carregador-automotivo-jfa-bob-storm-120a-slim-bivolt-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D291c1774-7220-4fa5-b04f-e1c873fe8f9d</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Controle Universal Longa Distância Jfa K600 Alcance 600 Mts</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>78</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-929012432-controle-universal-longa-distncia-jfa-k600-alcance-600-mts-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2d6b79ca-9dd8-4b26-99b4-8b1aaac816c9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3244870575-fonte-carregador-automotivo-jfa-bob-storm-120a-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c951bef-0fb1-49c2-89be-4b261942ebfd</t>
         </is>
       </c>
     </row>

--- a/dados/eliteautomotiva.xlsx
+++ b/dados/eliteautomotiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,210 +483,315 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>595.9</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=52067f2a-1255-4a9a-871e-3e1b559a779a</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=735f2990-9aa7-4837-909c-c7d0ac2697ed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>789</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:209318924#searchVariation=MLB24154371&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=0981a011-8af3-4a8f-8778-23fee5fa183e</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:209318924#searchVariation=MLB24154371&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ec3c3cf-a9d0-41be-9bea-cdd3a115893c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>426.9</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:209318924#searchVariation=MLB22569833&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=0981a011-8af3-4a8f-8778-23fee5fa183e</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:209318924#searchVariation=MLB22569833&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ec3c3cf-a9d0-41be-9bea-cdd3a115893c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Carregador Jfa Storm 40a Bivolt 12v Digital</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>452.9</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3254236266-fonte-automotiva-carregador-jfa-storm-40a-bivolt-12v-digital-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01c70779-e52d-43ca-9940-e1f210892cff</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3254236266-fonte-automotiva-carregador-jfa-storm-40a-bivolt-12v-digital-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17255090-5e75-4a35-8f81-6857e60287d2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Bivolt Jfa Storm Light 200 Ampere Carregado</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>845.9</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3709911152-fonte-automotiva-bivolt-jfa-storm-light-200-ampere-carregado-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De397452d-cc1a-4882-83de-325c2b8a43a9</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3709911152-fonte-automotiva-bivolt-jfa-storm-light-200-ampere-carregado-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ba70744-cc61-4d93-8bb9-c5bd5f454d9f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Universal Longa Distância Jfa K600 Alcance 600 Mts</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>78</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-929012432-controle-universal-longa-distncia-jfa-k600-alcance-600-mts-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D187cd74c-8a96-4719-8ee1-d447db54679c</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eliteautomotiva</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Slim Bivolt</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E8" t="n">
         <v>634.9</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244870575-fonte-carregador-automotivo-jfa-bob-storm-120a-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6c951bef-0fb1-49c2-89be-4b261942ebfd</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3244870575-fonte-carregador-automotivo-jfa-bob-storm-120a-slim-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9318cf0-3742-444b-8d05-f700d91ce4a8</t>
         </is>
       </c>
     </row>

--- a/dados/eliteautomotiva.xlsx
+++ b/dados/eliteautomotiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,277 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=735f2990-9aa7-4837-909c-c7d0ac2697ed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>789</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:209318924#searchVariation=MLB24154371&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ec3c3cf-a9d0-41be-9bea-cdd3a115893c</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>426.9</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:209318924#searchVariation=MLB22569833&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ec3c3cf-a9d0-41be-9bea-cdd3a115893c</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Carregador Jfa Storm 40a Bivolt 12v Digital</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>452.9</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3254236266-fonte-automotiva-carregador-jfa-storm-40a-bivolt-12v-digital-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D17255090-5e75-4a35-8f81-6857e60287d2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Bivolt Jfa Storm Light 200 Ampere Carregado</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>845.9</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3709911152-fonte-automotiva-bivolt-jfa-storm-light-200-ampere-carregado-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D5ba70744-cc61-4d93-8bb9-c5bd5f454d9f</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Controle Universal Longa Distância Jfa K600 Alcance 600 Mts</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>78</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-929012432-controle-universal-longa-distncia-jfa-k600-alcance-600-mts-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D187cd74c-8a96-4719-8ee1-d447db54679c</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>eliteautomotiva</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Slim Bivolt</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>634.9</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244870575-fonte-carregador-automotivo-jfa-bob-storm-120a-slim-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9318cf0-3742-444b-8d05-f700d91ce4a8</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:209318924#searchVariation=MLB22144397&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=49da52a3-a8e9-43b9-8d38-d31fce77bfc2</t>
         </is>
       </c>
     </row>
